--- a/results_classification/results_efficeintb0_OM2Fk.xlsx
+++ b/results_classification/results_efficeintb0_OM2Fk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Politecnico di Milano\Documenti\POLIMI\Tesi\multiclass\results_classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10992134_polimi_it/Documents/Documenti/POLIMI/Tesi/multiclass/results_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79550E-955A-4C8B-B169-EA970CD6904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A43F32-4F37-4C70-806A-978958DD367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1344" yWindow="13320" windowWidth="21600" windowHeight="11292" firstSheet="1" activeTab="4" xr2:uid="{22566470-8D0C-43F8-874B-5C35B93F586E}"/>
+    <workbookView minimized="1" xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15270" firstSheet="1" activeTab="1" xr2:uid="{22566470-8D0C-43F8-874B-5C35B93F586E}"/>
   </bookViews>
   <sheets>
     <sheet name="detection_results1" sheetId="7" r:id="rId1"/>
@@ -832,7 +832,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{406381C6-1279-44B0-8A71-5B702F21D030}" name="detection_results3__2" displayName="detection_results3__2" ref="A1:G78" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:G77" xr:uid="{406381C6-1279-44B0-8A71-5B702F21D030}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{794316CA-0204-43A2-B8A6-F89919B3D9C9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{794316CA-0204-43A2-B8A6-F89919B3D9C9}" uniqueName="1" name="Column1" totalsRowFunction="custom" queryTableFieldId="1" dataDxfId="6">
+      <totalsRowFormula>AVERAGE(A4:A77)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{350FE80A-9790-496F-B4F8-CCA7CDE72CD9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{CBB26772-822D-4C80-BBCB-356FAB1362F7}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{D39C7310-4338-4772-A540-49D647F979DE}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="3"/>
@@ -2972,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4EBC70-A7D1-4FAB-8D7D-D81719476E49}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
@@ -6590,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B408485E-C856-488E-9CE5-77D91A215B1F}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -8403,8 +8405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DC65EB-38A8-4E34-B6B3-1A8CED7426DE}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A83"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10187,6 +10189,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>AVERAGE(A4:A77)</f>
+        <v>42.266587953309745</v>
+      </c>
       <c r="E78">
         <f>SUBTOTAL(101,detection_results3__2[Column5])</f>
         <v>0.97333333333333338</v>
